--- a/productos_ejemplo.xlsx
+++ b/productos_ejemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Programacion\Proyectos\sistema-cargas-de-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E19EB2-EDD8-4D6E-91E6-74C1E92868D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E3C74-64B1-49C0-8FCB-9F85C3EA8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -56,6 +56,42 @@
   </si>
   <si>
     <t>Monitor 32 pulgadas 4k</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>iPhone 11 de 256gb</t>
+  </si>
+  <si>
+    <t>Galaxy a15</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy a15 de 128gb</t>
+  </si>
+  <si>
+    <t>Monitor Samsung 4k 32"</t>
+  </si>
+  <si>
+    <t>Increible monitor de 32"</t>
+  </si>
+  <si>
+    <t>Cargador Inalámbrico</t>
+  </si>
+  <si>
+    <t>Para todo tipo de celular</t>
+  </si>
+  <si>
+    <t>Luces Led</t>
+  </si>
+  <si>
+    <t>Alumbrá tu hojar con increibles colores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macbook Pro </t>
+  </si>
+  <si>
+    <t>Tecnología de Primera</t>
   </si>
 </sst>
 </file>
@@ -458,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +578,90 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
